--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0436123049819568</v>
+        <v>0.0427825289134036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019083653967749</v>
+        <v>0.0254219008151137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0681409559961647</v>
+        <v>0.0601431570116935</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117863948803187</v>
+        <v>0.124100230900714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0747223635945315</v>
+        <v>0.0935049379838842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161005534011842</v>
+        <v>0.154695523817544</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0186294909733503</v>
+        <v>-0.0236840170790994</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0601716006807567</v>
+        <v>-0.0533087243740529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.022912618734056</v>
+        <v>0.00594069021585417</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0345172719056191</v>
+        <v>-0.0138531072687799</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.086519856824325</v>
+        <v>-0.0505340811197356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0174853130130868</v>
+        <v>0.0228278665821758</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0398780069249653</v>
+        <v>0.0325071121053562</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0109401021704237</v>
+        <v>-0.00293841770571488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0906961160203544</v>
+        <v>0.0679526419164273</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0531128486474015</v>
+        <v>0.0465731370810223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017971696962778</v>
+        <v>0.0217576360884495</v>
       </c>
       <c r="D7" t="n">
-        <v>0.088254000332025</v>
+        <v>0.0713886380735951</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109270576535018</v>
+        <v>0.127404494753902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0438990974874676</v>
+        <v>0.0814517260294528</v>
       </c>
       <c r="D8" t="n">
-        <v>0.174642055582569</v>
+        <v>0.173357263478352</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00197639851024284</v>
+        <v>-0.0353184322209357</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0644001453658778</v>
+        <v>-0.082374876793278</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0683529423863635</v>
+        <v>0.0117380123514066</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0114302047794029</v>
+        <v>0.0156700578534066</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0676222597697089</v>
+        <v>-0.0391344657266503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0904826693285147</v>
+        <v>0.0704745814334636</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -578,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0859098845307255</v>
+        <v>0.0696097657082824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0139046217973739</v>
+        <v>0.0181698765551405</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157915147264077</v>
+        <v>0.121049654861424</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -595,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00119832579274969</v>
+        <v>0.0134200841437081</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0787656735741821</v>
+        <v>-0.0436105862232413</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0811623251596815</v>
+        <v>0.0704507545106574</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -612,13 +612,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0920069137172966</v>
+        <v>0.163506162024661</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0853082949672431</v>
+        <v>0.0421521876029341</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269322122401836</v>
+        <v>0.284860136446389</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0886016139532257</v>
+        <v>-0.11848232935677</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.244421433646624</v>
+        <v>-0.226754883272406</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0672182057401725</v>
+        <v>-0.0102097754411341</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -646,13 +646,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0655344500900402</v>
+        <v>-0.0310939372232939</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.221135649151512</v>
+        <v>-0.142840675904854</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0900667489714316</v>
+        <v>0.080652801458266</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -663,13 +663,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0752818805391475</v>
+        <v>0.0440008700361149</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0806535101497494</v>
+        <v>-0.0654852114088253</v>
       </c>
       <c r="D16" t="n">
-        <v>0.231217271228044</v>
+        <v>0.153486951481055</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -680,13 +680,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0540511173859778</v>
+        <v>0.0569667855655541</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0209004811205222</v>
+        <v>0.0043499471183831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.129002715892478</v>
+        <v>0.109583624012725</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -697,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0638600665964082</v>
+        <v>0.0659471240980055</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0593544128139526</v>
+        <v>-0.0205202468085454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187074546006769</v>
+        <v>0.152414495004556</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -714,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0440476359106026</v>
+        <v>0.0232444671001866</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.085408867166949</v>
+        <v>-0.0677412443734736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.173504138988154</v>
+        <v>0.114230178573847</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -731,13 +731,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.113770471374684</v>
+        <v>0.0950345716144238</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0792669084144834</v>
+        <v>-0.0320071810422052</v>
       </c>
       <c r="D20" t="n">
-        <v>0.306807851163852</v>
+        <v>0.222076324271053</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -748,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0426152967576268</v>
+        <v>0.106517429484949</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.171921831118229</v>
+        <v>-0.0495186348481971</v>
       </c>
       <c r="D21" t="n">
-        <v>0.257152424633483</v>
+        <v>0.262553493818095</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -765,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0109083790390346</v>
+        <v>0.0443478060551183</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.078808524563807</v>
+        <v>-0.0180789410262672</v>
       </c>
       <c r="D22" t="n">
-        <v>0.100625282641876</v>
+        <v>0.106774553136504</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -782,13 +782,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00609860245898284</v>
+        <v>0.119205559811995</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.139285356437357</v>
+        <v>0.0198291911122213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.151482561355322</v>
+        <v>0.218581928511768</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -799,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.226294971843878</v>
+        <v>-0.150938430346192</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.527109979260474</v>
+        <v>-0.369102519107845</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0745200355727176</v>
+        <v>0.0672256584154599</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -816,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.049804039449923</v>
+        <v>-0.0273061758476469</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.216115375839625</v>
+        <v>-0.141866893242571</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116507296939779</v>
+        <v>0.0872545415472766</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>0.111046948442519</v>
+        <v>0.062045527592155</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0831948586180923</v>
+        <v>-0.0683314062825216</v>
       </c>
       <c r="D26" t="n">
-        <v>0.30528875550313</v>
+        <v>0.192422461466832</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -850,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0529192867753305</v>
+        <v>0.0498913264863573</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0547675567118714</v>
+        <v>-0.0251966777910511</v>
       </c>
       <c r="D27" t="n">
-        <v>0.160606130262532</v>
+        <v>0.124979330763766</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -867,13 +867,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00869816512241949</v>
+        <v>0.0209032692682396</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.517312113323892</v>
+        <v>-0.308348906013621</v>
       </c>
       <c r="D28" t="n">
-        <v>0.534708443568731</v>
+        <v>0.350155444550101</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -884,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.125329209267444</v>
+        <v>0.0604334068384109</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0528818001290938</v>
+        <v>-0.0635234109691655</v>
       </c>
       <c r="D29" t="n">
-        <v>0.303540218663982</v>
+        <v>0.184390224645987</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -901,13 +901,13 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0533650955790109</v>
+        <v>0.0653548177646377</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.15057087913077</v>
+        <v>-0.0764823846863456</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257301070288792</v>
+        <v>0.207192020215621</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -918,13 +918,13 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0774999758821375</v>
+        <v>0.023574388008817</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.277800008082333</v>
+        <v>-0.117606251453717</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122800056318058</v>
+        <v>0.164755027471351</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -935,13 +935,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.129460428672861</v>
+        <v>0.0792715060759079</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0297698628802134</v>
+        <v>0.00731821685892103</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229150994465509</v>
+        <v>0.151224795292895</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -952,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.188047234439953</v>
+        <v>0.183435976797437</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0161028557925034</v>
+        <v>0.0610024212038627</v>
       </c>
       <c r="D33" t="n">
-        <v>0.359991613087402</v>
+        <v>0.305869532391011</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -969,13 +969,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>0.112536292813767</v>
+        <v>-0.00207500557068179</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0789766186470818</v>
+        <v>-0.136958440969864</v>
       </c>
       <c r="D34" t="n">
-        <v>0.304049204274616</v>
+        <v>0.132808429828501</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -986,13 +986,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.111405751496277</v>
+        <v>0.0204024762039425</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.250545622363697</v>
+        <v>-0.203779596543515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.473357125356251</v>
+        <v>0.2445845489514</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1003,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100729828207841</v>
+        <v>0.0671222011710891</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0769211278804218</v>
+        <v>-0.0672864403136327</v>
       </c>
       <c r="D36" t="n">
-        <v>0.278380784296103</v>
+        <v>0.201530842655811</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0808082726394657</v>
+        <v>0.0461112468869429</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.00592646017538637</v>
+        <v>-0.0156013579928429</v>
       </c>
       <c r="D37" t="n">
-        <v>0.167543005454318</v>
+        <v>0.107823851766729</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1037,13 +1037,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241329570007311</v>
+        <v>0.164292921240961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0934787729477959</v>
+        <v>0.0575037507652376</v>
       </c>
       <c r="D38" t="n">
-        <v>0.389180367066825</v>
+        <v>0.271082091716685</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0779008953043425</v>
+        <v>-0.111718519399924</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.224228509791173</v>
+        <v>-0.217439979928476</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0684267191824878</v>
+        <v>-0.00599705887137213</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0271688843234471</v>
+        <v>0.0185470767667761</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.28183719299337</v>
+        <v>-0.164403774079264</v>
       </c>
       <c r="D40" t="n">
-        <v>0.227499424346476</v>
+        <v>0.201497927612816</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1088,13 +1088,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>0.155528501286003</v>
+        <v>0.112378446213999</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0267897816951556</v>
+        <v>-0.0161064521718535</v>
       </c>
       <c r="D41" t="n">
-        <v>0.337846784267162</v>
+        <v>0.240863344599851</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1105,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0806919758891738</v>
+        <v>0.0128815133359227</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0405955523514283</v>
+        <v>-0.0670206126625616</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201979504129776</v>
+        <v>0.0927836393344069</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1122,13 +1122,13 @@
         <v>17</v>
       </c>
       <c r="B43" t="n">
-        <v>0.157235755013593</v>
+        <v>0.0000835166697397121</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.151870519477175</v>
+        <v>-0.207857944074017</v>
       </c>
       <c r="D43" t="n">
-        <v>0.466342029504362</v>
+        <v>0.208024977413496</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1139,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0746290978315416</v>
+        <v>-0.143156524970848</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.278869605648017</v>
+        <v>-0.270371551061333</v>
       </c>
       <c r="D44" t="n">
-        <v>0.129611409984933</v>
+        <v>-0.0159414988803622</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1156,13 +1156,13 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0941580213100614</v>
+        <v>0.0886833949641083</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.209529325687671</v>
+        <v>-0.102487441199554</v>
       </c>
       <c r="D45" t="n">
-        <v>0.397845368307794</v>
+        <v>0.27985423112777</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1173,13 +1173,13 @@
         <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138708738741512</v>
+        <v>0.10753578576963</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0614872652577756</v>
+        <v>-0.0301527456761456</v>
       </c>
       <c r="D46" t="n">
-        <v>0.338904742740799</v>
+        <v>0.245224317215405</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>0.040516322743288</v>
+        <v>0.0329219968308334</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0119826936379433</v>
+        <v>-0.00418087914622495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0930153391245193</v>
+        <v>0.0700248728078917</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>0.10182018525363</v>
+        <v>0.0996988622827386</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.00897770215983545</v>
+        <v>0.0212202569790497</v>
       </c>
       <c r="D48" t="n">
-        <v>0.212618072667095</v>
+        <v>0.178177467586427</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0258844819561298</v>
+        <v>0.01124352565856</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0506307757414965</v>
+        <v>-0.0434318311867258</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102399739653756</v>
+        <v>0.0659188825038458</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,13 +1241,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>0.017341463339624</v>
+        <v>0.00386460398304419</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.258679089380645</v>
+        <v>-0.196449919435513</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293362016059893</v>
+        <v>0.204179127401601</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1258,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00810286008267679</v>
+        <v>0.0152223762772778</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0943018160901481</v>
+        <v>-0.0545596034709766</v>
       </c>
       <c r="D51" t="n">
-        <v>0.110507536255502</v>
+        <v>0.0850043560255322</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1275,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>0.036707291653055</v>
+        <v>0.0438882524798859</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.00601192427354733</v>
+        <v>0.0136493681285979</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0794265075796573</v>
+        <v>0.0741271368311739</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1292,13 +1292,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>0.134741249909826</v>
+        <v>0.12925627370115</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0697096041630702</v>
+        <v>0.0828471037044912</v>
       </c>
       <c r="D53" t="n">
-        <v>0.199772895656582</v>
+        <v>0.175665443697809</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1309,13 +1309,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0601736040042497</v>
+        <v>-0.0306051407186632</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.13031189364479</v>
+        <v>-0.0805503254249473</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00996468563629058</v>
+        <v>0.0193400439876209</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1326,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0601736040042497</v>
+        <v>-0.0306051407186632</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.13031189364479</v>
+        <v>-0.0805503254249473</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00996468563629058</v>
+        <v>0.0193400439876209</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1343,13 +1343,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0043865817245284</v>
+        <v>0.000588286260002287</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0894627526901494</v>
+        <v>-0.0636738750263734</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0982359161392062</v>
+        <v>0.0648504475463779</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427825289134036</v>
+        <v>0.0427825289134035</v>
       </c>
       <c r="C2" t="n">
         <v>0.0254219008151137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0601431570116935</v>
+        <v>0.0601431570116933</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124100230900714</v>
+        <v>0.124100230900713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0935049379838842</v>
+        <v>0.0935049379838836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154695523817544</v>
+        <v>0.154695523817543</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0236840170790994</v>
+        <v>-0.0236840170790995</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0533087243740529</v>
+        <v>-0.053308724374053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00594069021585417</v>
+        <v>0.0059406902158541</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -479,10 +479,10 @@
         <v>-0.0138531072687799</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0505340811197356</v>
+        <v>-0.0505340811197354</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0228278665821758</v>
+        <v>0.0228278665821756</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0325071121053562</v>
+        <v>0.0325071121053564</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00293841770571488</v>
+        <v>-0.00293841770571474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0679526419164273</v>
+        <v>0.0679526419164274</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0465731370810223</v>
+        <v>0.0465731370810225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0217576360884495</v>
+        <v>0.02175763608845</v>
       </c>
       <c r="D7" t="n">
         <v>0.0713886380735951</v>
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.127404494753902</v>
+        <v>0.127404494753903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0814517260294528</v>
+        <v>0.0814517260294534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.173357263478352</v>
+        <v>0.173357263478353</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0353184322209357</v>
+        <v>-0.0353184322209356</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.082374876793278</v>
+        <v>-0.0823748767932779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0117380123514066</v>
+        <v>0.0117380123514067</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -564,10 +564,10 @@
         <v>0.0156700578534066</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0391344657266503</v>
+        <v>-0.0391344657266502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704745814334636</v>
+        <v>0.0704745814334635</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -578,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0696097657082824</v>
+        <v>0.0696097657082822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181698765551405</v>
+        <v>0.0181698765551404</v>
       </c>
       <c r="D11" t="n">
         <v>0.121049654861424</v>
@@ -595,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0134200841437081</v>
+        <v>0.0134200841437082</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0436105862232413</v>
+        <v>-0.0436105862232412</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0704507545106574</v>
+        <v>0.0704507545106577</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -612,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.163506162024661</v>
+        <v>0.163506162024662</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0421521876029341</v>
+        <v>0.0421521876029342</v>
       </c>
       <c r="D13" t="n">
         <v>0.284860136446389</v>
@@ -652,7 +652,7 @@
         <v>-0.142840675904854</v>
       </c>
       <c r="D15" t="n">
-        <v>0.080652801458266</v>
+        <v>0.0806528014582659</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -666,7 +666,7 @@
         <v>0.0440008700361149</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0654852114088253</v>
+        <v>-0.0654852114088251</v>
       </c>
       <c r="D16" t="n">
         <v>0.153486951481055</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0569667855655541</v>
+        <v>0.0569667855655538</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0043499471183831</v>
+        <v>0.0043499471183828</v>
       </c>
       <c r="D17" t="n">
         <v>0.109583624012725</v>
@@ -697,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0659471240980055</v>
+        <v>0.0659471240980054</v>
       </c>
       <c r="C18" t="n">
         <v>-0.0205202468085454</v>
@@ -714,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0232444671001866</v>
+        <v>0.0232444671001865</v>
       </c>
       <c r="C19" t="n">
         <v>-0.0677412443734736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114230178573847</v>
+        <v>0.114230178573846</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0950345716144238</v>
+        <v>0.0950345716144239</v>
       </c>
       <c r="C20" t="n">
         <v>-0.0320071810422052</v>
@@ -751,7 +751,7 @@
         <v>0.106517429484949</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0495186348481971</v>
+        <v>-0.0495186348481969</v>
       </c>
       <c r="D21" t="n">
         <v>0.262553493818095</v>
@@ -765,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0443478060551183</v>
+        <v>0.0443478060551181</v>
       </c>
       <c r="C22" t="n">
         <v>-0.0180789410262672</v>
@@ -802,10 +802,10 @@
         <v>-0.150938430346192</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.369102519107845</v>
+        <v>-0.369102519107844</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0672256584154599</v>
+        <v>0.0672256584154602</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0273061758476469</v>
+        <v>-0.027306175847647</v>
       </c>
       <c r="C25" t="n">
         <v>-0.141866893242571</v>
@@ -836,7 +836,7 @@
         <v>0.062045527592155</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0683314062825216</v>
+        <v>-0.0683314062825215</v>
       </c>
       <c r="D26" t="n">
         <v>0.192422461466832</v>
@@ -853,7 +853,7 @@
         <v>0.0498913264863573</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0251966777910511</v>
+        <v>-0.0251966777910512</v>
       </c>
       <c r="D27" t="n">
         <v>0.124979330763766</v>
@@ -867,10 +867,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209032692682396</v>
+        <v>0.0209032692682397</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.308348906013621</v>
+        <v>-0.308348906013622</v>
       </c>
       <c r="D28" t="n">
         <v>0.350155444550101</v>
@@ -884,10 +884,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0604334068384109</v>
+        <v>0.060433406838411</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0635234109691655</v>
+        <v>-0.0635234109691654</v>
       </c>
       <c r="D29" t="n">
         <v>0.184390224645987</v>
@@ -901,10 +901,10 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0653548177646377</v>
+        <v>0.0653548177646378</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0764823846863456</v>
+        <v>-0.0764823846863455</v>
       </c>
       <c r="D30" t="n">
         <v>0.207192020215621</v>
@@ -935,13 +935,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0792715060759079</v>
+        <v>0.0792715060759076</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00731821685892103</v>
+        <v>0.00731821685892094</v>
       </c>
       <c r="D32" t="n">
-        <v>0.151224795292895</v>
+        <v>0.151224795292894</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>0.0610024212038627</v>
       </c>
       <c r="D33" t="n">
-        <v>0.305869532391011</v>
+        <v>0.30586953239101</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00207500557068179</v>
+        <v>-0.00207500557068137</v>
       </c>
       <c r="C34" t="n">
         <v>-0.136958440969864</v>
@@ -986,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0204024762039425</v>
+        <v>0.0204024762039426</v>
       </c>
       <c r="C35" t="n">
         <v>-0.203779596543515</v>
@@ -1003,10 +1003,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0671222011710891</v>
+        <v>0.067122201171089</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0672864403136327</v>
+        <v>-0.0672864403136328</v>
       </c>
       <c r="D36" t="n">
         <v>0.201530842655811</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0461112468869429</v>
+        <v>0.0461112468869427</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0156013579928429</v>
+        <v>-0.0156013579928428</v>
       </c>
       <c r="D37" t="n">
-        <v>0.107823851766729</v>
+        <v>0.107823851766728</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1040,10 +1040,10 @@
         <v>0.164292921240961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0575037507652376</v>
+        <v>0.0575037507652378</v>
       </c>
       <c r="D38" t="n">
-        <v>0.271082091716685</v>
+        <v>0.271082091716684</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1057,10 +1057,10 @@
         <v>-0.111718519399924</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.217439979928476</v>
+        <v>-0.217439979928477</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.00599705887137213</v>
+        <v>-0.0059970588713721</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1071,10 +1071,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0185470767667761</v>
+        <v>0.0185470767667764</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.164403774079264</v>
+        <v>-0.164403774079263</v>
       </c>
       <c r="D40" t="n">
         <v>0.201497927612816</v>
@@ -1091,7 +1091,7 @@
         <v>0.112378446213999</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0161064521718535</v>
+        <v>-0.0161064521718534</v>
       </c>
       <c r="D41" t="n">
         <v>0.240863344599851</v>
@@ -1105,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0128815133359227</v>
+        <v>0.0128815133359226</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0670206126625616</v>
+        <v>-0.0670206126625617</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0927836393344069</v>
+        <v>0.0927836393344068</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0000835166697397121</v>
+        <v>0.0000835166697394892</v>
       </c>
       <c r="C43" t="n">
         <v>-0.207857944074017</v>
@@ -1145,7 +1145,7 @@
         <v>-0.270371551061333</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0159414988803622</v>
+        <v>-0.0159414988803624</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1156,7 +1156,7 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0886833949641083</v>
+        <v>0.0886833949641084</v>
       </c>
       <c r="C45" t="n">
         <v>-0.102487441199554</v>
@@ -1176,10 +1176,10 @@
         <v>0.10753578576963</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0301527456761456</v>
+        <v>-0.0301527456761455</v>
       </c>
       <c r="D46" t="n">
-        <v>0.245224317215405</v>
+        <v>0.245224317215406</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0329219968308334</v>
+        <v>0.0329219968308335</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00418087914622495</v>
+        <v>-0.00418087914622511</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0700248728078917</v>
+        <v>0.0700248728078922</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0996988622827386</v>
+        <v>0.0996988622827387</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0212202569790497</v>
+        <v>0.0212202569790498</v>
       </c>
       <c r="D48" t="n">
-        <v>0.178177467586427</v>
+        <v>0.178177467586428</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01124352565856</v>
+        <v>0.0112435256585602</v>
       </c>
       <c r="C49" t="n">
         <v>-0.0434318311867258</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0659188825038458</v>
+        <v>0.0659188825038463</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,13 +1241,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00386460398304419</v>
+        <v>0.00386460398304425</v>
       </c>
       <c r="C50" t="n">
         <v>-0.196449919435513</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204179127401601</v>
+        <v>0.204179127401602</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1261,7 +1261,7 @@
         <v>0.0152223762772778</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0545596034709766</v>
+        <v>-0.0545596034709765</v>
       </c>
       <c r="D51" t="n">
         <v>0.0850043560255322</v>
@@ -1275,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0438882524798859</v>
+        <v>0.0438882524798862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0136493681285979</v>
+        <v>0.0136493681285983</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0741271368311739</v>
+        <v>0.0741271368311741</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1295,7 +1295,7 @@
         <v>0.12925627370115</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0828471037044912</v>
+        <v>0.0828471037044906</v>
       </c>
       <c r="D53" t="n">
         <v>0.175665443697809</v>
@@ -1309,13 +1309,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0306051407186632</v>
+        <v>-0.0306051407186631</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0805503254249473</v>
+        <v>-0.0805503254249471</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0193400439876209</v>
+        <v>0.019340043987621</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1326,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0306051407186632</v>
+        <v>-0.0306051407186631</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0805503254249473</v>
+        <v>-0.0805503254249471</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0193400439876209</v>
+        <v>0.019340043987621</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1343,13 +1343,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>0.000588286260002287</v>
+        <v>0.000588286260002173</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0636738750263734</v>
+        <v>-0.0636738750263735</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0648504475463779</v>
+        <v>0.0648504475463778</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427825289134035</v>
+        <v>0.0429610587287474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0254219008151137</v>
+        <v>0.0255852150655959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0601431570116933</v>
+        <v>0.0603369023918989</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -442,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124100230900713</v>
+        <v>0.124366392153206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0935049379838836</v>
+        <v>0.0937415011398707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154695523817543</v>
+        <v>0.154991283166542</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0236840170790995</v>
+        <v>-0.0235224718669336</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.053308724374053</v>
+        <v>-0.0531679210831514</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0059406902158541</v>
+        <v>0.00612297734928427</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0138531072687799</v>
+        <v>-0.0136447105460134</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0505340811197354</v>
+        <v>-0.050352129842833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0228278665821756</v>
+        <v>0.0230627087508061</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0325071121053564</v>
+        <v>0.0325496437481717</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00293841770571474</v>
+        <v>-0.00292831359049425</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0679526419164274</v>
+        <v>0.0680276010868376</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0465731370810225</v>
+        <v>0.0465731370810222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02175763608845</v>
+        <v>0.0217576360884495</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0713886380735951</v>
+        <v>0.0713886380735949</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -530,7 +530,7 @@
         <v>0.127404494753903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0814517260294534</v>
+        <v>0.0814517260294537</v>
       </c>
       <c r="D8" t="n">
         <v>0.173357263478353</v>
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0353184322209356</v>
+        <v>-0.0353184322209359</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0823748767932779</v>
+        <v>-0.0823748767932781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0117380123514067</v>
+        <v>0.0117380123514064</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0156700578534066</v>
+        <v>0.0156700578534067</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0391344657266502</v>
+        <v>-0.0391344657266501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704745814334635</v>
+        <v>0.0704745814334636</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -578,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0696097657082822</v>
+        <v>0.0696097657082823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181698765551404</v>
+        <v>0.0181698765551405</v>
       </c>
       <c r="D11" t="n">
         <v>0.121049654861424</v>
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.163506162024662</v>
+        <v>0.163506162024661</v>
       </c>
       <c r="C13" t="n">
         <v>0.0421521876029342</v>
@@ -635,7 +635,7 @@
         <v>-0.226754883272406</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0102097754411341</v>
+        <v>-0.0102097754411339</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -652,7 +652,7 @@
         <v>-0.142840675904854</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0806528014582659</v>
+        <v>0.0806528014582658</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -663,10 +663,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0440008700361149</v>
+        <v>0.0440008700361147</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0654852114088251</v>
+        <v>-0.0654852114088252</v>
       </c>
       <c r="D16" t="n">
         <v>0.153486951481055</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0569667855655538</v>
+        <v>0.0569667855655539</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0043499471183828</v>
+        <v>0.00434994711838287</v>
       </c>
       <c r="D17" t="n">
         <v>0.109583624012725</v>
@@ -697,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0659471240980054</v>
+        <v>0.0659471240980056</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0205202468085454</v>
+        <v>-0.0205202468085456</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152414495004556</v>
+        <v>0.152414495004557</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -717,10 +717,10 @@
         <v>0.0232444671001865</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0677412443734736</v>
+        <v>-0.0677412443734735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114230178573846</v>
+        <v>0.114230178573847</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -731,10 +731,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0950345716144239</v>
+        <v>0.095034571614424</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0320071810422052</v>
+        <v>-0.0320071810422051</v>
       </c>
       <c r="D20" t="n">
         <v>0.222076324271053</v>
@@ -751,7 +751,7 @@
         <v>0.106517429484949</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0495186348481969</v>
+        <v>-0.0495186348481971</v>
       </c>
       <c r="D21" t="n">
         <v>0.262553493818095</v>
@@ -765,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0443478060551181</v>
+        <v>0.044347806055118</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0180789410262672</v>
+        <v>-0.0180789410262675</v>
       </c>
       <c r="D22" t="n">
-        <v>0.106774553136504</v>
+        <v>0.106774553136503</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -802,10 +802,10 @@
         <v>-0.150938430346192</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.369102519107844</v>
+        <v>-0.369102519107845</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0672256584154602</v>
+        <v>0.0672256584154599</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -822,7 +822,7 @@
         <v>-0.141866893242571</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0872545415472766</v>
+        <v>0.0872545415472767</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>0.062045527592155</v>
+        <v>0.0620455275921548</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0683314062825215</v>
+        <v>-0.0683314062825217</v>
       </c>
       <c r="D26" t="n">
-        <v>0.192422461466832</v>
+        <v>0.192422461466831</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -850,10 +850,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0498913264863573</v>
+        <v>0.0498913264863576</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0251966777910512</v>
+        <v>-0.025196677791051</v>
       </c>
       <c r="D27" t="n">
         <v>0.124979330763766</v>
@@ -867,10 +867,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209032692682397</v>
+        <v>0.0209032692682398</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.308348906013622</v>
+        <v>-0.308348906013621</v>
       </c>
       <c r="D28" t="n">
         <v>0.350155444550101</v>
@@ -884,10 +884,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.060433406838411</v>
+        <v>0.0604334068384109</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0635234109691654</v>
+        <v>-0.0635234109691655</v>
       </c>
       <c r="D29" t="n">
         <v>0.184390224645987</v>
@@ -904,7 +904,7 @@
         <v>0.0653548177646378</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0764823846863455</v>
+        <v>-0.0764823846863456</v>
       </c>
       <c r="D30" t="n">
         <v>0.207192020215621</v>
@@ -918,13 +918,13 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>0.023574388008817</v>
+        <v>0.0235743880088167</v>
       </c>
       <c r="C31" t="n">
         <v>-0.117606251453717</v>
       </c>
       <c r="D31" t="n">
-        <v>0.164755027471351</v>
+        <v>0.16475502747135</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -935,13 +935,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0792715060759076</v>
+        <v>0.0792715060759077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00731821685892094</v>
+        <v>0.00731821685892084</v>
       </c>
       <c r="D32" t="n">
-        <v>0.151224795292894</v>
+        <v>0.151224795292895</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -955,10 +955,10 @@
         <v>0.183435976797437</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0610024212038627</v>
+        <v>0.0610024212038628</v>
       </c>
       <c r="D33" t="n">
-        <v>0.30586953239101</v>
+        <v>0.305869532391011</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00207500557068137</v>
+        <v>-0.00207500557068142</v>
       </c>
       <c r="C34" t="n">
         <v>-0.136958440969864</v>
@@ -986,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0204024762039426</v>
+        <v>0.0204024762039425</v>
       </c>
       <c r="C35" t="n">
         <v>-0.203779596543515</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0461112468869427</v>
+        <v>0.0461112468869428</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0156013579928428</v>
+        <v>-0.0156013579928429</v>
       </c>
       <c r="D37" t="n">
-        <v>0.107823851766728</v>
+        <v>0.107823851766729</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1040,7 +1040,7 @@
         <v>0.164292921240961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0575037507652378</v>
+        <v>0.0575037507652377</v>
       </c>
       <c r="D38" t="n">
         <v>0.271082091716684</v>
@@ -1057,10 +1057,10 @@
         <v>-0.111718519399924</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.217439979928477</v>
+        <v>-0.217439979928476</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0059970588713721</v>
+        <v>-0.00599705887137231</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1091,7 +1091,7 @@
         <v>0.112378446213999</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0161064521718534</v>
+        <v>-0.0161064521718535</v>
       </c>
       <c r="D41" t="n">
         <v>0.240863344599851</v>
@@ -1108,10 +1108,10 @@
         <v>0.0128815133359226</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0670206126625617</v>
+        <v>-0.0670206126625618</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0927836393344068</v>
+        <v>0.0927836393344069</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0000835166697394892</v>
+        <v>0.0000835166697395464</v>
       </c>
       <c r="C43" t="n">
         <v>-0.207857944074017</v>
@@ -1145,7 +1145,7 @@
         <v>-0.270371551061333</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0159414988803624</v>
+        <v>-0.0159414988803623</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1162,7 +1162,7 @@
         <v>-0.102487441199554</v>
       </c>
       <c r="D45" t="n">
-        <v>0.27985423112777</v>
+        <v>0.279854231127771</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1176,7 +1176,7 @@
         <v>0.10753578576963</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0301527456761455</v>
+        <v>-0.0301527456761453</v>
       </c>
       <c r="D46" t="n">
         <v>0.245224317215406</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0329219968308335</v>
+        <v>0.032877024243997</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00418087914622511</v>
+        <v>-0.00422627990935685</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0700248728078922</v>
+        <v>0.0699803283973508</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0996988622827387</v>
+        <v>0.0994883706364756</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0212202569790498</v>
+        <v>0.0210113919726373</v>
       </c>
       <c r="D48" t="n">
-        <v>0.178177467586428</v>
+        <v>0.177965349300314</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0112435256585602</v>
+        <v>0.0112633007044856</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0434318311867258</v>
+        <v>-0.0434126124133428</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0659188825038463</v>
+        <v>0.0659392138223141</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,13 +1241,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00386460398304425</v>
+        <v>0.00433252939033922</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.196449919435513</v>
+        <v>-0.195955855677555</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204179127401602</v>
+        <v>0.204620914458233</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1258,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0152223762772778</v>
+        <v>0.0151352460534196</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0545596034709765</v>
+        <v>-0.0546506683391932</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0850043560255322</v>
+        <v>0.0849211604460325</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1275,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0438882524798862</v>
+        <v>0.0443679478200813</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0136493681285983</v>
+        <v>0.0140991238729835</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0741271368311741</v>
+        <v>0.0746367717671791</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1292,13 +1292,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>0.12925627370115</v>
+        <v>0.129837751330906</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0828471037044906</v>
+        <v>0.0833750752633189</v>
       </c>
       <c r="D53" t="n">
-        <v>0.175665443697809</v>
+        <v>0.176300427398493</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1309,13 +1309,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0306051407186631</v>
+        <v>-0.030204472056095</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0805503254249471</v>
+        <v>-0.0801845676298053</v>
       </c>
       <c r="D54" t="n">
-        <v>0.019340043987621</v>
+        <v>0.0197756235176153</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1326,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0306051407186631</v>
+        <v>-0.030204472056095</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0805503254249471</v>
+        <v>-0.0801845676298053</v>
       </c>
       <c r="D55" t="n">
-        <v>0.019340043987621</v>
+        <v>0.0197756235176153</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1343,13 +1343,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>0.000588286260002173</v>
+        <v>0.000989468184879479</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0636738750263735</v>
+        <v>-0.0633114359624442</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0648504475463778</v>
+        <v>0.0652903723322031</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_vote_country_detailed.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0429610587287474</v>
+        <v>0.0429610587287471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0255852150655959</v>
+        <v>0.0255852150655958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0603369023918989</v>
+        <v>0.0603369023918985</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -445,7 +445,7 @@
         <v>0.124366392153206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0937415011398707</v>
+        <v>0.0937415011398704</v>
       </c>
       <c r="D3" t="n">
         <v>0.154991283166542</v>
@@ -462,10 +462,10 @@
         <v>-0.0235224718669336</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0531679210831514</v>
+        <v>-0.0531679210831513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00612297734928427</v>
+        <v>0.00612297734928415</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -482,7 +482,7 @@
         <v>-0.050352129842833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0230627087508061</v>
+        <v>0.0230627087508062</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0325496437481717</v>
+        <v>0.0325496437481716</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00292831359049425</v>
+        <v>-0.0029283135904942</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0680276010868376</v>
+        <v>0.0680276010868375</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0465731370810222</v>
+        <v>0.0465731370810216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0217576360884495</v>
+        <v>0.0217576360884491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0713886380735949</v>
+        <v>0.071388638073594</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.127404494753903</v>
+        <v>0.127404494753902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0814517260294537</v>
+        <v>0.0814517260294529</v>
       </c>
       <c r="D8" t="n">
-        <v>0.173357263478353</v>
+        <v>0.173357263478352</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0353184322209359</v>
+        <v>-0.0353184322209356</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0823748767932781</v>
+        <v>-0.0823748767932777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0117380123514064</v>
+        <v>0.0117380123514066</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -564,10 +564,10 @@
         <v>0.0156700578534067</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0391344657266501</v>
+        <v>-0.0391344657266503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704745814334636</v>
+        <v>0.0704745814334637</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -581,7 +581,7 @@
         <v>0.0696097657082823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181698765551405</v>
+        <v>0.0181698765551406</v>
       </c>
       <c r="D11" t="n">
         <v>0.121049654861424</v>
@@ -595,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0134200841437082</v>
+        <v>0.013420084143708</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0436105862232412</v>
+        <v>-0.0436105862232414</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0704507545106577</v>
+        <v>0.0704507545106575</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -615,7 +615,7 @@
         <v>0.163506162024661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0421521876029342</v>
+        <v>0.042152187602934</v>
       </c>
       <c r="D13" t="n">
         <v>0.284860136446389</v>
@@ -635,7 +635,7 @@
         <v>-0.226754883272406</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0102097754411339</v>
+        <v>-0.0102097754411341</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -646,13 +646,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0310939372232939</v>
+        <v>-0.0310939372232938</v>
       </c>
       <c r="C15" t="n">
         <v>-0.142840675904854</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0806528014582658</v>
+        <v>0.080652801458266</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -666,7 +666,7 @@
         <v>0.0440008700361147</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0654852114088252</v>
+        <v>-0.0654852114088254</v>
       </c>
       <c r="D16" t="n">
         <v>0.153486951481055</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0569667855655539</v>
+        <v>0.0569667855655538</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00434994711838287</v>
+        <v>0.00434994711838309</v>
       </c>
       <c r="D17" t="n">
         <v>0.109583624012725</v>
@@ -697,10 +697,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0659471240980056</v>
+        <v>0.0659471240980055</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0205202468085456</v>
+        <v>-0.0205202468085455</v>
       </c>
       <c r="D18" t="n">
         <v>0.152414495004557</v>
@@ -714,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0232444671001865</v>
+        <v>0.0232444671001864</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0677412443734735</v>
+        <v>-0.0677412443734736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114230178573847</v>
+        <v>0.114230178573846</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -731,10 +731,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0.095034571614424</v>
+        <v>0.0950345716144241</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0320071810422051</v>
+        <v>-0.032007181042205</v>
       </c>
       <c r="D20" t="n">
         <v>0.222076324271053</v>
@@ -751,7 +751,7 @@
         <v>0.106517429484949</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0495186348481971</v>
+        <v>-0.049518634848197</v>
       </c>
       <c r="D21" t="n">
         <v>0.262553493818095</v>
@@ -765,10 +765,10 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0.044347806055118</v>
+        <v>0.0443478060551181</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0180789410262675</v>
+        <v>-0.018078941026267</v>
       </c>
       <c r="D22" t="n">
         <v>0.106774553136503</v>
@@ -788,7 +788,7 @@
         <v>0.0198291911122213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.218581928511768</v>
+        <v>0.218581928511769</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -802,10 +802,10 @@
         <v>-0.150938430346192</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.369102519107845</v>
+        <v>-0.369102519107844</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0672256584154599</v>
+        <v>0.0672256584154602</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -816,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.027306175847647</v>
+        <v>-0.0273061758476468</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.141866893242571</v>
+        <v>-0.14186689324257</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0872545415472767</v>
+        <v>0.0872545415472768</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0620455275921548</v>
+        <v>0.062045527592155</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0683314062825217</v>
+        <v>-0.0683314062825215</v>
       </c>
       <c r="D26" t="n">
-        <v>0.192422461466831</v>
+        <v>0.192422461466832</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -850,10 +850,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0498913264863576</v>
+        <v>0.0498913264863574</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.025196677791051</v>
+        <v>-0.0251966777910513</v>
       </c>
       <c r="D27" t="n">
         <v>0.124979330763766</v>
@@ -884,10 +884,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0604334068384109</v>
+        <v>0.060433406838411</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0635234109691655</v>
+        <v>-0.0635234109691654</v>
       </c>
       <c r="D29" t="n">
         <v>0.184390224645987</v>
@@ -904,7 +904,7 @@
         <v>0.0653548177646378</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0764823846863456</v>
+        <v>-0.0764823846863455</v>
       </c>
       <c r="D30" t="n">
         <v>0.207192020215621</v>
@@ -918,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0235743880088167</v>
+        <v>0.0235743880088169</v>
       </c>
       <c r="C31" t="n">
         <v>-0.117606251453717</v>
@@ -938,10 +938,10 @@
         <v>0.0792715060759077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00731821685892084</v>
+        <v>0.00731821685892095</v>
       </c>
       <c r="D32" t="n">
-        <v>0.151224795292895</v>
+        <v>0.151224795292894</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -955,10 +955,10 @@
         <v>0.183435976797437</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0610024212038628</v>
+        <v>0.0610024212038626</v>
       </c>
       <c r="D33" t="n">
-        <v>0.305869532391011</v>
+        <v>0.30586953239101</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00207500557068142</v>
+        <v>-0.00207500557068145</v>
       </c>
       <c r="C34" t="n">
         <v>-0.136958440969864</v>
@@ -986,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0204024762039425</v>
+        <v>0.0204024762039426</v>
       </c>
       <c r="C35" t="n">
         <v>-0.203779596543515</v>
@@ -1003,10 +1003,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>0.067122201171089</v>
+        <v>0.0671222011710891</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0672864403136328</v>
+        <v>-0.0672864403136326</v>
       </c>
       <c r="D36" t="n">
         <v>0.201530842655811</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0461112468869428</v>
+        <v>0.0461112468869427</v>
       </c>
       <c r="C37" t="n">
         <v>-0.0156013579928429</v>
       </c>
       <c r="D37" t="n">
-        <v>0.107823851766729</v>
+        <v>0.107823851766728</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1040,7 +1040,7 @@
         <v>0.164292921240961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0575037507652377</v>
+        <v>0.0575037507652376</v>
       </c>
       <c r="D38" t="n">
         <v>0.271082091716684</v>
@@ -1060,7 +1060,7 @@
         <v>-0.217439979928476</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.00599705887137231</v>
+        <v>-0.00599705887137214</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1071,10 +1071,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0185470767667764</v>
+        <v>0.0185470767667762</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.164403774079263</v>
+        <v>-0.164403774079264</v>
       </c>
       <c r="D40" t="n">
         <v>0.201497927612816</v>
@@ -1091,7 +1091,7 @@
         <v>0.112378446213999</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0161064521718535</v>
+        <v>-0.0161064521718534</v>
       </c>
       <c r="D41" t="n">
         <v>0.240863344599851</v>
@@ -1105,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0128815133359226</v>
+        <v>0.0128815133359225</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0670206126625618</v>
+        <v>-0.0670206126625617</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0927836393344069</v>
+        <v>0.0927836393344068</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0000835166697395464</v>
+        <v>0.0000835166697395027</v>
       </c>
       <c r="C43" t="n">
         <v>-0.207857944074017</v>
@@ -1156,7 +1156,7 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0886833949641084</v>
+        <v>0.0886833949641085</v>
       </c>
       <c r="C45" t="n">
         <v>-0.102487441199554</v>
@@ -1176,7 +1176,7 @@
         <v>0.10753578576963</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0301527456761453</v>
+        <v>-0.0301527456761454</v>
       </c>
       <c r="D46" t="n">
         <v>0.245224317215406</v>
@@ -1190,13 +1190,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>0.032877024243997</v>
+        <v>0.0328770242439968</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00422627990935685</v>
+        <v>-0.00422627990935694</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0699803283973508</v>
+        <v>0.0699803283973505</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1207,10 +1207,10 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0994883706364756</v>
+        <v>0.099488370636476</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0210113919726373</v>
+        <v>0.0210113919726375</v>
       </c>
       <c r="D48" t="n">
         <v>0.177965349300314</v>
@@ -1224,13 +1224,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0112633007044856</v>
+        <v>0.0112633007044858</v>
       </c>
       <c r="C49" t="n">
         <v>-0.0434126124133428</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0659392138223141</v>
+        <v>0.0659392138223144</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1241,7 +1241,7 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00433252939033922</v>
+        <v>0.00433252939033932</v>
       </c>
       <c r="C50" t="n">
         <v>-0.195955855677555</v>
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0151352460534196</v>
+        <v>0.0151352460534197</v>
       </c>
       <c r="C51" t="n">
         <v>-0.0546506683391932</v>
@@ -1278,10 +1278,10 @@
         <v>0.0443679478200813</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0140991238729835</v>
+        <v>0.0140991238729832</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0746367717671791</v>
+        <v>0.0746367717671793</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1292,13 +1292,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>0.129837751330906</v>
+        <v>0.129837751330908</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0833750752633189</v>
+        <v>0.0833750752633204</v>
       </c>
       <c r="D53" t="n">
-        <v>0.176300427398493</v>
+        <v>0.176300427398495</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1309,13 +1309,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.030204472056095</v>
+        <v>-0.0302044720560949</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0801845676298053</v>
+        <v>-0.0801845676298052</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0197756235176153</v>
+        <v>0.0197756235176154</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1326,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.030204472056095</v>
+        <v>-0.0302044720560949</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0801845676298053</v>
+        <v>-0.0801845676298052</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0197756235176153</v>
+        <v>0.0197756235176154</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1343,13 +1343,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="n">
-        <v>0.000989468184879479</v>
+        <v>0.000989468184879495</v>
       </c>
       <c r="C56" t="n">
         <v>-0.0633114359624442</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0652903723322031</v>
+        <v>0.0652903723322032</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
